--- a/LeetCodeDoubtsProblems/LeetCodeProblems.xlsx
+++ b/LeetCodeDoubtsProblems/LeetCodeProblems.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrddam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrddam\Desktop\ATLAS\LeetCodeDoubtsProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB03EAAB-5398-442B-BD4B-38C1755CF45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B85CFFE-07F1-4572-B266-12964CA596E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkedList" sheetId="1" r:id="rId1"/>
     <sheet name="StacksAndQueues" sheetId="2" r:id="rId2"/>
     <sheet name="Tree's" sheetId="3" r:id="rId3"/>
-    <sheet name="CycleSort" sheetId="4" r:id="rId4"/>
-    <sheet name="BinarySearch" sheetId="5" r:id="rId5"/>
+    <sheet name="Graph" sheetId="6" r:id="rId4"/>
+    <sheet name="CycleSort" sheetId="4" r:id="rId5"/>
+    <sheet name="BinarySearch" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>https://leetcode.com/problems/merge-two-sorted-lists/description/</t>
   </si>
@@ -164,6 +165,36 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/split-array-largest-sum/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-root-to-leaf-numbers/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/convert-bst-to-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/reverse-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/boundary-traversal-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/detonate-the-maximum-bombs/description/</t>
   </si>
 </sst>
 </file>
@@ -597,10 +628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCBBCB8-3176-42B7-B43F-8DF558769B9B}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,16 +726,90 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{2C3BC048-1FDF-4C3F-8F11-50BC0CE09004}"/>
+    <hyperlink ref="A22" r:id="rId2" xr:uid="{BE3E9B7D-2673-470A-8B65-3089D2253E25}"/>
+    <hyperlink ref="A23" r:id="rId3" xr:uid="{1686EEC5-497D-4C39-A75B-28829EEC64AC}"/>
+    <hyperlink ref="A25" r:id="rId4" xr:uid="{43FDB8D1-4E0B-41F9-AE0D-4983765905B4}"/>
+    <hyperlink ref="A26" r:id="rId5" xr:uid="{7456BA89-D97E-404C-82D1-52C2E8947486}"/>
+    <hyperlink ref="A27" r:id="rId6" xr:uid="{BC888C49-5508-466E-837A-BA7DAAB91D65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6A0A1B-A618-4215-B205-298070F4F9AE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{723C052C-4C20-470B-B438-67AC539B0E0A}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{F988EBA4-4471-4D39-968C-E9E108318C29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FF04B-E71F-47EC-8DEB-1CC2788071E2}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -749,12 +854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A827832-0C70-4A74-A1FF-36339CA13033}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
